--- a/ClientEnquiry.xlsx
+++ b/ClientEnquiry.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15"/>
-    <col customWidth="1" max="2" min="2" width="24"/>
-    <col customWidth="1" max="3" min="3" width="28"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -757,7 +757,51 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ayaz</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>aaa@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7405193393</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>chatbot</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jack@gmail.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7888745545</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ClientEnquiry.xlsx
+++ b/ClientEnquiry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
@@ -801,6 +801,94 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>web app</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mike@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>324232333</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>I'm looking for a chatbot</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>michael@yahoon.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>222454475</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ayaz</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>do you guys work on AI ? I want ai project</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ayaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22312122</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>please send me the quote for arcade game</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Jenny@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>332817786</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
